--- a/cases/HTTPLogin.xlsx
+++ b/cases/HTTPLogin.xlsx
@@ -1876,10 +1876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2945,16 +2945,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="58.625" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="58.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="38.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
@@ -3379,12 +3379,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="13.875" style="14" customWidth="1"/>
-    <col min="3" max="4" width="17.375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="56.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="33.125" style="14" customWidth="1"/>
-    <col min="7" max="12" width="9" style="14"/>
+    <col min="1" max="1" style="14" width="9.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="13.875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="14" width="17.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="14" width="56.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="33.125" collapsed="true"/>
+    <col min="7" max="12" style="14" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5287,10 +5287,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7608,11 +7608,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="59.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8244,7 +8244,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="62.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="62.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
